--- a/Project/1208.xlsx
+++ b/Project/1208.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Downloads\1111 四234 程式語言\PL\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FEFEF0-1638-4194-9517-B76858C8C944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F580F-0DB4-4E86-8F60-DFD6FB068FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{5FA7A0C3-BB9A-4070-BA71-13075B1063CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>內文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>精華整理》SBF對談紐時作家 : Alameda與FTX資金為何會混合？對刑責擔心嗎？ SBF 辯「從沒出金領過錢」：FTX 一直有財務風控，新CEO不熟悉公司運作 CZ駁5個FTX誤解》我不是產業救世主、SBF是騙子壞人、不是我害死FTX</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,103 +469,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D89FEED-0A26-404C-AA25-1C50B78B08F4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="113.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+    <col min="2" max="2" width="113.453125" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
